--- a/Documentacion/PREGAME/1. ELICITACION/1.3 Historias Usuario/7185_5G_Cadena_Caicedo_Leiva_U1T5_V2.1.xlsx
+++ b/Documentacion/PREGAME/1. ELICITACION/1.3 Historias Usuario/7185_5G_Cadena_Caicedo_Leiva_U1T5_V2.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_lei\Desktop\Analisis y diseño de software\7185_G5\Documentacion\PREGAME\1. ELICITACION\1.3 Historias Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C31941-0A8B-4F2E-BA4D-C2A092E1970D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1990C2-EFDD-4739-B38F-A265A6650A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1078,31 +1078,38 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1111,13 +1118,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1457,7 +1457,7 @@
   <dimension ref="A1:Z992"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4101,23 +4101,23 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="62"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="67"/>
     </row>
     <row r="7" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -4171,15 +4171,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="38"/>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="38"/>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="62"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="39"/>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
@@ -4195,17 +4195,17 @@
         <v>102</v>
       </c>
       <c r="D10" s="42"/>
-      <c r="E10" s="63" t="e">
+      <c r="E10" s="69" t="e">
         <f>VLOOKUP(C10,'Formato descripción HU'!B9:O14,5,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="43"/>
-      <c r="H10" s="63" t="e">
+      <c r="H10" s="69" t="e">
         <f>VLOOKUP(C10,'Formato descripción HU'!B9:O14,11,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I10" s="62"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="43"/>
       <c r="K10" s="39"/>
       <c r="L10" s="39"/>
@@ -4250,15 +4250,15 @@
         <v>103</v>
       </c>
       <c r="D12" s="42"/>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="62"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="43"/>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="I12" s="62"/>
+      <c r="I12" s="67"/>
       <c r="J12" s="43"/>
       <c r="K12" s="45"/>
       <c r="L12" s="45"/>
@@ -4285,17 +4285,17 @@
         <v>#N/A</v>
       </c>
       <c r="D13" s="42"/>
-      <c r="E13" s="63" t="e">
+      <c r="E13" s="69" t="e">
         <f>VLOOKUP(C10,'Formato descripción HU'!B9:O14,10,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F13" s="62"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="43"/>
-      <c r="H13" s="63" t="e">
+      <c r="H13" s="69" t="e">
         <f>VLOOKUP(C10,'Formato descripción HU'!B9:O14,7,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I13" s="62"/>
+      <c r="I13" s="67"/>
       <c r="J13" s="43"/>
       <c r="K13" s="45"/>
       <c r="L13" s="45"/>
@@ -4345,34 +4345,34 @@
     <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="58" t="e">
+      <c r="D15" s="62" t="e">
         <f>VLOOKUP(C10,'Formato descripción HU'!B9:O14,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E15" s="53"/>
+      <c r="E15" s="56"/>
       <c r="F15" s="39"/>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="58" t="e">
+      <c r="H15" s="62" t="e">
         <f>VLOOKUP(C10,'Formato descripción HU'!B9:O14,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I15" s="59"/>
-      <c r="J15" s="53"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="56"/>
       <c r="K15" s="39"/>
-      <c r="L15" s="64" t="s">
+      <c r="L15" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="M15" s="58" t="e">
+      <c r="M15" s="62" t="e">
         <f>VLOOKUP(C10,'Formato descripción HU'!B9:O14,6,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="N15" s="59"/>
-      <c r="O15" s="53"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="56"/>
       <c r="P15" s="40"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -4388,19 +4388,19 @@
     <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="36"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
       <c r="F16" s="39"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="54"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="51"/>
-      <c r="J16" s="55"/>
+      <c r="J16" s="61"/>
       <c r="K16" s="39"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="54"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="60"/>
       <c r="N16" s="51"/>
-      <c r="O16" s="55"/>
+      <c r="O16" s="61"/>
       <c r="P16" s="40"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -4416,19 +4416,19 @@
     <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="39"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="57"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="58"/>
       <c r="K17" s="39"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="57"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="58"/>
       <c r="P17" s="40"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -4471,42 +4471,42 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="36"/>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="67" t="e">
+      <c r="D19" s="56"/>
+      <c r="E19" s="70" t="e">
         <f>VLOOKUP(C10,'Formato descripción HU'!B9:O14,14,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="69"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="72"/>
       <c r="P19" s="40"/>
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="36"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="72"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="75"/>
       <c r="P20" s="40"/>
       <c r="Q20" s="4"/>
     </row>
@@ -4531,29 +4531,29 @@
     <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="36"/>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="58" t="e">
+      <c r="D22" s="56"/>
+      <c r="E22" s="62" t="e">
         <f>VLOOKUP(C10,'Formato descripción HU'!B9:O14,12,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="53"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="56"/>
       <c r="I22" s="39"/>
-      <c r="J22" s="52" t="s">
+      <c r="J22" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="58" t="e">
+      <c r="K22" s="56"/>
+      <c r="L22" s="62" t="e">
         <f>VLOOKUP(C10,'Formato descripción HU'!B9:O14,13,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="53"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="56"/>
       <c r="P22" s="40"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -4569,19 +4569,19 @@
     <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="54"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="60"/>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
-      <c r="H23" s="55"/>
+      <c r="H23" s="61"/>
       <c r="I23" s="39"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="54"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="60"/>
       <c r="M23" s="51"/>
       <c r="N23" s="51"/>
-      <c r="O23" s="55"/>
+      <c r="O23" s="61"/>
       <c r="P23" s="40"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -4597,19 +4597,19 @@
     <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="36"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="58"/>
       <c r="I24" s="39"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="58"/>
       <c r="P24" s="40"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -6168,6 +6168,11 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -6184,11 +6189,6 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
